--- a/Tests/1/Test_SubjSingleRun3.xlsx
+++ b/Tests/1/Test_SubjSingleRun3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -288,9 +288,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,7 +619,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -954,8 +954,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L353"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="18">
-        <v>10</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="18">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
